--- a/Module 2 Everyday Excel Part 2/Week 1 files/Expiry dates.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Expiry dates.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFBDD7-1BF9-4B56-949E-3CDE723006C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74AF204-A08F-4ACE-9BFE-9013E157E31C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="368" windowWidth="20520" windowHeight="11609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="5925" windowWidth="28500" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Joe</t>
   </si>
@@ -63,6 +55,9 @@
   </si>
   <si>
     <t>Joseph</t>
+  </si>
+  <si>
+    <t>Condition</t>
   </si>
 </sst>
 </file>
@@ -118,44 +113,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -436,103 +426,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <f ca="1">TODAY()+75</f>
-        <v>43985</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44338</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">B4-TODAY()</f>
+        <v>75</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">IF(C4&lt;0,"Expired!",IF(C4&lt;30,"Expire Soon!","OK"))</f>
+        <v>OK</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" ref="G4:G10" ca="1" si="0">AND(C4&gt;0,C4&lt;30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <f ca="1">TODAY()-25</f>
-        <v>43885</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44238</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C10" ca="1" si="1">B5-TODAY()</f>
+        <v>-25</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D10" ca="1" si="2">IF(C5&lt;0,"Expired!",IF(C5&lt;30,"Expire Soon!","OK"))</f>
+        <v>Expired!</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f ca="1">TODAY()+15</f>
-        <v>43925</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44278</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Expire Soon!</v>
+      </c>
+      <c r="G6" t="b">
+        <f ca="1">AND(C6&gt;0,C6&lt;30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f ca="1">TODAY()+87</f>
-        <v>43997</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44350</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f ca="1">TODAY()-7</f>
-        <v>43903</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44256</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Expired!</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f ca="1">TODAY()+12</f>
-        <v>43922</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44275</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Expire Soon!</v>
+      </c>
+      <c r="G9" t="b">
+        <f ca="1">AND(C9&gt;0,C9&lt;30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <f ca="1">TODAY()+54</f>
-        <v>43964</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>44317</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>OK</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:D10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C4&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($C1048574&gt;=0,$C1048574&lt;=30)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>